--- a/data.xlsx
+++ b/data.xlsx
@@ -4,22 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sale_order" sheetId="1" r:id="rId1"/>
+    <sheet name="orderline" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>created_date</t>
   </si>
   <si>
     <t>id_user</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>id_product</t>
+  </si>
+  <si>
+    <t>id_bill</t>
   </si>
 </sst>
 </file>
@@ -371,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -987,4 +997,3473 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"insert into order_line(amount,id_product,id_bill) values ("&amp;A1&amp;","&amp;B1&amp;","&amp;C1&amp;")"</f>
+        <v>insert into order_line(amount,id_product,id_bill) values (amount,id_product,id_bill)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">"insert into order_line(amount,id_product,id_bill) values ("&amp;A2&amp;","&amp;B2&amp;","&amp;C2&amp;")"</f>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,14,1)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,3,2)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,11,3)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,11,4)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,19,5)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,8,6)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,2,7)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,4,8)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,27,9)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,3,10)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,19,11)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,29,12)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,22,13)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,4,14)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,24,15)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,29,16)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,17,17)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,30,18)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,34,19)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,6,20)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,30,21)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,30,22)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,6,23)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,32,24)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,33,25)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,24,26)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,17,27)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,20,28)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,20,29)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,16,30)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,13,31)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,33,32)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,31,33)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,23,34)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,5,35)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,1,36)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,22,37)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,35,38)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,32,39)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,20,40)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,21,41)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,16,42)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,27,43)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>36</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,36,44)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,30,45)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>17</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,17,46)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,30,47)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,19,48)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,13,49)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f ca="1">RANDBETWEEN(1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <f ca="1">RANDBETWEEN(1,36)</f>
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <f ca="1">RANDBETWEEN(1,49)</f>
+        <v>31</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,19,31)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f ca="1">RANDBETWEEN(1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <f ca="1">RANDBETWEEN(1,36)</f>
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <f ca="1">RANDBETWEEN(1,49)</f>
+        <v>8</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,24,8)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" ref="A53:A116" ca="1" si="1">RANDBETWEEN(1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:B116" ca="1" si="2">RANDBETWEEN(1,36)</f>
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C116" ca="1" si="3">RANDBETWEEN(1,49)</f>
+        <v>23</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,27,23)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,17,31)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,2,14)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,18,30)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,16,34)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,25,12)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,26,36)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,22,45)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,24,30)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,22,32)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,27,46)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,23,26)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,23,49)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D129" ca="1" si="4">"insert into order_line(amount,id_product,id_bill) values ("&amp;A66&amp;","&amp;B66&amp;","&amp;C66&amp;")"</f>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,35,34)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,14,1)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,8,19)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,5,20)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,15,49)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,28,17)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,26,28)</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,23,8)</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,1,10)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,10,39)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,32,14)</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,26,1)</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,21,37)</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,35,2)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,13,23)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,23,22)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,20,2)</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,2,17)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,16,45)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,23,35)</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,33,26)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,30,42)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,32,6)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,18,21)</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,27,23)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,3,44)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,8,30)</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,1,24)</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,14,13)</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,29,16)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,16,11)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,30,20)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,28,16)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,12,12)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,12,32)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,12,10)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,7,45)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,1,9)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,32,27)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,24,10)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,35,27)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,6,25)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,33,42)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,30,3)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,35,41)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,22,19)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,30,48)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,20,46)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,25,19)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,1,8)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,25,10)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" ref="A117:A180" ca="1" si="5">RANDBETWEEN(1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ref="B117:B180" ca="1" si="6">RANDBETWEEN(1,36)</f>
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ref="C117:C180" ca="1" si="7">RANDBETWEEN(1,49)</f>
+        <v>46</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,10,46)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,27,9)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,11,46)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,16,20)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,34,47)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,36,43)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,18,1)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,27,19)</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,9,39)</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,24,9)</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,9,38)</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,23,49)</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,27,8)</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" ref="D130:D193" ca="1" si="8">"insert into order_line(amount,id_product,id_bill) values ("&amp;A130&amp;","&amp;B130&amp;","&amp;C130&amp;")"</f>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,26,16)</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,21,13)</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,36,31)</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,2,32)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ca="1" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,10,47)</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ca="1" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,25,49)</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ca="1" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,2,44)</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,17,18)</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ca="1" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,21,48)</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,29,32)</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,15,31)</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,17,28)</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,17,14)</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,21,4)</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ca="1" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,22,27)</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,4,18)</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,2,7)</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,4,18)</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,16,1)</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,27,11)</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,5,11)</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,27,10)</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,4,13)</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,10,6)</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,25,8)</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ca="1" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,21,23)</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ca="1" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,8,33)</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,8,1)</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,13,31)</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ca="1" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,11,15)</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ca="1" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,24,35)</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ca="1" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ca="1" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,32,27)</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,18,5)</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ca="1" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,25,49)</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,27,31)</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,17,10)</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="C166">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,36,11)</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,16,21)</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ca="1" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C168">
+        <f t="shared" ca="1" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,23,33)</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,29,20)</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ca="1" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C170">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,22,7)</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <f t="shared" ca="1" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,4,41)</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <f t="shared" ca="1" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,15,44)</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,28,2)</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ca="1" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,21,35)</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,11,12)</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B176">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,2,32)</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B177">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="C177">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,16,12)</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ca="1" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="C178">
+        <f t="shared" ca="1" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,16,42)</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,4,16)</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,5,16)</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" ref="A181:A200" ca="1" si="9">RANDBETWEEN(1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ref="B181:B200" ca="1" si="10">RANDBETWEEN(1,36)</f>
+        <v>35</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ref="C181:C200" ca="1" si="11">RANDBETWEEN(1,49)</f>
+        <v>41</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,35,41)</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="C182">
+        <f t="shared" ca="1" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,22,46)</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,28,1)</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ca="1" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,7,31)</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,3,36)</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ca="1" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,27,27)</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="C187">
+        <f t="shared" ca="1" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,14,33)</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,4,12)</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ca="1" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="C189">
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,36,28)</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,8,18)</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,23,36)</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,22,11)</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,30,4)</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ca="1" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="C194">
+        <f t="shared" ca="1" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" ref="D194:D200" ca="1" si="12">"insert into order_line(amount,id_product,id_bill) values ("&amp;A194&amp;","&amp;B194&amp;","&amp;C194&amp;")"</f>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,35,33)</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ca="1" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,34,9)</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ca="1" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,29,36)</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,19,14)</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,11,20)</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <f t="shared" ca="1" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (1,15,23)</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>insert into order_line(amount,id_product,id_bill) values (2,1,5)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>